--- a/Template/Шаблон для загрузки договоров в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки договоров в DirectumRX.xlsx
@@ -112,13 +112,13 @@
     <t>Наша организация</t>
   </si>
   <si>
-    <t>Журнал регистрации</t>
-  </si>
-  <si>
     <t>Итог</t>
   </si>
   <si>
     <t>Подробности</t>
+  </si>
+  <si>
+    <t>ИД журнала регистрации</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:XFD4"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -816,16 +816,16 @@
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="31" t="s">
         <v>29</v>
-      </c>
-      <c r="S1" s="31" t="s">
-        <v>30</v>
       </c>
       <c r="T1" s="31" t="s">
         <v>27</v>
       </c>
       <c r="U1" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">

--- a/Template/Шаблон для загрузки договоров в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки договоров в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -157,7 +157,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +184,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -270,9 +276,6 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -297,13 +300,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -379,8 +375,14 @@
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -734,36 +736,36 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="I1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="16" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="36" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="19" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -779,518 +781,518 @@
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="34"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="31"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="34"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="31"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="33"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="30"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="33"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="30"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="33"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="30"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="33"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="30"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="33"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="30"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="33"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="30"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="33"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="30"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="33"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="30"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="33"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="30"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="33"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="30"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="33"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="30"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="33"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="30"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="33"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="30"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="33"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="30"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="33"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="30"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="33"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="30"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="33"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="30"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="L22" s="21"/>
+      <c r="A22" s="15"/>
+      <c r="L22" s="18"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -1316,79 +1318,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30">
+    <row r="2" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="26">
+      <c r="A3" s="23">
         <v>4</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="26">
+      <c r="A4" s="23">
         <v>5</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+      <c r="A5" s="23">
         <v>7</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="23">
         <v>14</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
+      <c r="A7" s="23">
         <v>15</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="21" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Template/Шаблон для загрузки договоров в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки договоров в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Ошибки" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоры!$A$1:$V$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоры!$A$1:$X$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Содержание</t>
   </si>
@@ -122,12 +122,18 @@
   </si>
   <si>
     <t>Регистрация</t>
+  </si>
+  <si>
+    <t>Дело</t>
+  </si>
+  <si>
+    <t>Дата помещения</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -268,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -385,6 +391,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -736,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -761,14 +770,14 @@
     <col min="15" max="15" width="26.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.42578125" style="19" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="13"/>
+    <col min="18" max="21" width="13.42578125" style="19" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -826,17 +835,23 @@
       <c r="S1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="32"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -856,11 +871,13 @@
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="30"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="30"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -880,11 +897,13 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="31"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="31"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -904,11 +923,13 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="31"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="31"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -928,11 +949,13 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="30"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="30"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
@@ -952,11 +975,13 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="30"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="30"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -976,11 +1001,13 @@
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="30"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="30"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -1000,11 +1027,13 @@
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="30"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="30"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -1024,11 +1053,13 @@
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="30"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="30"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -1048,11 +1079,13 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="30"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="30"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1072,11 +1105,13 @@
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="30"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="30"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -1096,11 +1131,13 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="30"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="30"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -1120,11 +1157,13 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="30"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="30"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -1144,11 +1183,13 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="30"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="30"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -1168,11 +1209,13 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="30"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="30"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -1192,11 +1235,13 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="30"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="30"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
@@ -1216,11 +1261,13 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="30"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="30"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
@@ -1240,11 +1287,13 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="30"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="30"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -1264,11 +1313,13 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="30"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="30"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -1288,11 +1339,13 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="30"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="30"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -1311,17 +1364,17 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="30"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="30"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="L22" s="18"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:V22"/>
+  <autoFilter ref="A1:X22"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
